--- a/tmp/data/weights_calibrated.xlsx
+++ b/tmp/data/weights_calibrated.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,616 +471,616 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.0234375</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.0528125</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.12703125</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.12375</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.29296875</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.0234375</v>
+        <v>0.0650000000000001</v>
       </c>
       <c r="C7">
-        <v>-0.0528125</v>
+        <v>0.0823333333333334</v>
       </c>
       <c r="D7">
-        <v>0.12703125</v>
+        <v>0.469333333333333</v>
       </c>
       <c r="E7">
-        <v>0.12375</v>
+        <v>0.668166666666667</v>
       </c>
       <c r="F7">
-        <v>0.29296875</v>
+        <v>0.8775</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.0650000000000001</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0823333333333334</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.469333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>0.668166666666667</v>
+        <v>0.4</v>
       </c>
       <c r="F8">
-        <v>0.8775</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.332395833333333</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.4841875</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.469197916666667</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.444916666666667</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.609635416666667</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.709166666666667</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.545333333333333</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.927166666666667</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-0.0391666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.620625</v>
       </c>
       <c r="C12">
-        <v>0.8</v>
+        <v>0.47075</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0.275708333333333</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.112</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>-0.056875</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.332395833333333</v>
+        <v>-0.0469791666666667</v>
       </c>
       <c r="C13">
-        <v>0.4841875</v>
+        <v>-0.0850625</v>
       </c>
       <c r="D13">
-        <v>0.469197916666667</v>
+        <v>-0.21509375</v>
       </c>
       <c r="E13">
-        <v>0.444916666666667</v>
+        <v>-0.0830833333333333</v>
       </c>
       <c r="F13">
-        <v>0.609635416666667</v>
+        <v>-0.0472395833333333</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.709166666666667</v>
+        <v>0.420625</v>
       </c>
       <c r="C14">
-        <v>0.545333333333333</v>
+        <v>0.27075</v>
       </c>
       <c r="D14">
-        <v>0.927166666666667</v>
+        <v>0.0757083333333333</v>
       </c>
       <c r="E14">
-        <v>0.347</v>
+        <v>0.012</v>
       </c>
       <c r="F14">
-        <v>-0.0391666666666666</v>
+        <v>0.043125</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.153020833333333</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.3549375</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.44490625</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-0.0430833333333333</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-0.147239583333333</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0.620625</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.47075</v>
+        <v>0.4</v>
       </c>
       <c r="D17">
-        <v>0.275708333333333</v>
+        <v>0.6</v>
       </c>
       <c r="E17">
-        <v>0.112</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>-0.056875</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.0469791666666667</v>
+        <v>0.332395833333333</v>
       </c>
       <c r="C18">
-        <v>-0.0850625</v>
+        <v>0.8841875</v>
       </c>
       <c r="D18">
-        <v>-0.21509375</v>
+        <v>0.669197916666667</v>
       </c>
       <c r="E18">
-        <v>-0.0830833333333333</v>
+        <v>0.444916666666667</v>
       </c>
       <c r="F18">
-        <v>-0.0472395833333333</v>
+        <v>0.209635416666667</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.420625</v>
+        <v>1.420625</v>
       </c>
       <c r="C19">
-        <v>0.27075</v>
+        <v>0.47075</v>
       </c>
       <c r="D19">
-        <v>0.0757083333333333</v>
+        <v>0.475708333333333</v>
       </c>
       <c r="E19">
-        <v>0.012</v>
+        <v>0.312</v>
       </c>
       <c r="F19">
-        <v>0.043125</v>
+        <v>-0.056875</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
         <v>0.6</v>
       </c>
-      <c r="E20">
-        <v>0.7</v>
-      </c>
       <c r="F20">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.153020833333333</v>
+        <v>-0.0234375</v>
       </c>
       <c r="C21">
-        <v>0.3549375</v>
+        <v>0.1471875</v>
       </c>
       <c r="D21">
-        <v>0.44490625</v>
+        <v>0.32703125</v>
       </c>
       <c r="E21">
-        <v>-0.0430833333333333</v>
+        <v>0.72375</v>
       </c>
       <c r="F21">
-        <v>-0.147239583333333</v>
+        <v>0.89296875</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.276458333333333</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>0.20775</v>
       </c>
       <c r="D22">
-        <v>0.6</v>
+        <v>0.217875</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0.133166666666667</v>
       </c>
       <c r="F22">
-        <v>1.6</v>
+        <v>0.159791666666667</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.332395833333333</v>
+        <v>0.8</v>
       </c>
       <c r="C23">
-        <v>0.8841875</v>
+        <v>0.6</v>
       </c>
       <c r="D23">
-        <v>0.669197916666667</v>
+        <v>0.5</v>
       </c>
       <c r="E23">
-        <v>0.444916666666667</v>
+        <v>0.3</v>
       </c>
       <c r="F23">
-        <v>0.209635416666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>1.420625</v>
+        <v>1.2</v>
       </c>
       <c r="C24">
-        <v>0.47075</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>0.475708333333333</v>
+        <v>0.4</v>
       </c>
       <c r="E24">
-        <v>0.312</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-0.056875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-0.0234375</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>0.1471875</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.32703125</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.92375</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1.29296875</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>0.155833333333333</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>0.737</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>0.742166666666667</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.521166666666667</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.316666666666667</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.420625</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.47075</v>
       </c>
       <c r="D27">
-        <v>0.2</v>
+        <v>0.475708333333333</v>
       </c>
       <c r="E27">
-        <v>0.6</v>
+        <v>0.312</v>
       </c>
       <c r="F27">
-        <v>1.2</v>
+        <v>0.143125</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0234375</v>
+        <v>1.2</v>
       </c>
       <c r="C28">
-        <v>0.1471875</v>
+        <v>0.4</v>
       </c>
       <c r="D28">
-        <v>0.32703125</v>
+        <v>0.2</v>
       </c>
       <c r="E28">
-        <v>0.72375</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.89296875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.276458333333333</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0.20775</v>
+        <v>0.2</v>
       </c>
       <c r="D29">
-        <v>0.217875</v>
+        <v>0.4</v>
       </c>
       <c r="E29">
-        <v>0.133166666666667</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.159791666666667</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.8</v>
+        <v>0.1765625</v>
       </c>
       <c r="C30">
-        <v>0.6</v>
+        <v>0.7471875</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>0.72703125</v>
       </c>
       <c r="E30">
-        <v>0.3</v>
+        <v>0.52375</v>
       </c>
       <c r="F30">
-        <v>0.1</v>
+        <v>0.29296875</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D31">
+        <v>0.6</v>
+      </c>
+      <c r="E31">
         <v>0.4</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0234375</v>
+        <v>0.976458333333333</v>
       </c>
       <c r="C32">
-        <v>0.1471875</v>
+        <v>0.20775</v>
       </c>
       <c r="D32">
-        <v>0.32703125</v>
+        <v>0.017875</v>
       </c>
       <c r="E32">
-        <v>0.92375</v>
+        <v>-0.166833333333333</v>
       </c>
       <c r="F32">
-        <v>1.29296875</v>
+        <v>-0.140208333333333</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.155833333333333</v>
+        <v>-0.0676041666666667</v>
       </c>
       <c r="C33">
-        <v>0.737</v>
+        <v>-0.1158125</v>
       </c>
       <c r="D33">
-        <v>0.742166666666667</v>
+        <v>0.269197916666667</v>
       </c>
       <c r="E33">
-        <v>0.521166666666667</v>
+        <v>0.444916666666667</v>
       </c>
       <c r="F33">
-        <v>0.316666666666667</v>
+        <v>1.00963541666667</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.420625</v>
+        <v>0.111458333333333</v>
       </c>
       <c r="C34">
-        <v>0.47075</v>
+        <v>0.525416666666667</v>
       </c>
       <c r="D34">
-        <v>0.475708333333333</v>
+        <v>0.548541666666667</v>
       </c>
       <c r="E34">
-        <v>0.312</v>
+        <v>0.965</v>
       </c>
       <c r="F34">
-        <v>0.143125</v>
+        <v>0.582291666666667</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>1.2</v>
+        <v>0.509166666666667</v>
       </c>
       <c r="C35">
-        <v>0.4</v>
+        <v>0.545333333333333</v>
       </c>
       <c r="D35">
-        <v>0.2</v>
+        <v>0.527166666666667</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.347</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>0.160833333333333</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1091,601 +1091,281 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>0.2</v>
       </c>
-      <c r="D37">
-        <v>0.4</v>
-      </c>
       <c r="E37">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F37">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.1765625</v>
+        <v>-0.0676041666666667</v>
       </c>
       <c r="C38">
-        <v>0.7471875</v>
+        <v>0.0841875</v>
       </c>
       <c r="D38">
-        <v>0.72703125</v>
+        <v>0.0691979166666667</v>
       </c>
       <c r="E38">
-        <v>0.52375</v>
+        <v>0.644916666666667</v>
       </c>
       <c r="F38">
-        <v>0.29296875</v>
+        <v>0.609635416666667</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.2</v>
+      </c>
+      <c r="E39">
         <v>0.6</v>
       </c>
-      <c r="C39">
-        <v>0.6</v>
-      </c>
-      <c r="D39">
-        <v>0.6</v>
-      </c>
-      <c r="E39">
-        <v>0.4</v>
-      </c>
       <c r="F39">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.976458333333333</v>
+        <v>0.132395833333333</v>
       </c>
       <c r="C40">
-        <v>0.20775</v>
+        <v>0.0841875</v>
       </c>
       <c r="D40">
-        <v>0.017875</v>
+        <v>0.269197916666667</v>
       </c>
       <c r="E40">
-        <v>-0.166833333333333</v>
+        <v>0.644916666666667</v>
       </c>
       <c r="F40">
-        <v>-0.140208333333333</v>
+        <v>1.00963541666667</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1.51145833333333</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1.32541666666667</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>0.548541666666667</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.365</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.182291666666667</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>-0.0676041666666667</v>
+        <v>0.2415625</v>
       </c>
       <c r="C42">
-        <v>-0.1158125</v>
+        <v>0.429520833333333</v>
       </c>
       <c r="D42">
-        <v>0.269197916666667</v>
+        <v>1.19636458333333</v>
       </c>
       <c r="E42">
-        <v>0.444916666666667</v>
+        <v>1.39191666666667</v>
       </c>
       <c r="F42">
-        <v>1.00963541666667</v>
+        <v>1.57046875</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B43">
-        <v>0.111458333333333</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.525416666666667</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
-        <v>0.548541666666667</v>
+        <v>0.8</v>
       </c>
       <c r="E43">
-        <v>0.965</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0.582291666666667</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>0.509166666666667</v>
+        <v>0.1765625</v>
       </c>
       <c r="C44">
-        <v>0.545333333333333</v>
+        <v>0.3471875</v>
       </c>
       <c r="D44">
-        <v>0.527166666666667</v>
+        <v>0.52703125</v>
       </c>
       <c r="E44">
-        <v>0.347</v>
+        <v>0.92375</v>
       </c>
       <c r="F44">
-        <v>0.160833333333333</v>
+        <v>1.29296875</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B45">
-        <v>1.2</v>
+        <v>0.132395833333333</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.2841875</v>
       </c>
       <c r="D45">
-        <v>0.4</v>
+        <v>0.469197916666667</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.844916666666667</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.609635416666667</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1.420625</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.87075</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.275708333333333</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-0.056875</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.1765625</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.5471875</v>
       </c>
       <c r="D47">
-        <v>0.2</v>
+        <v>0.92703125</v>
       </c>
       <c r="E47">
-        <v>0.6</v>
+        <v>1.12375</v>
       </c>
       <c r="F47">
-        <v>0.6</v>
+        <v>1.29296875</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B48">
-        <v>-0.0676041666666667</v>
+        <v>0.665</v>
       </c>
       <c r="C48">
-        <v>0.0841875</v>
+        <v>1.08233333333333</v>
       </c>
       <c r="D48">
-        <v>0.0691979166666667</v>
+        <v>0.869333333333333</v>
       </c>
       <c r="E48">
-        <v>0.644916666666667</v>
+        <v>0.668166666666667</v>
       </c>
       <c r="F48">
-        <v>0.609635416666667</v>
+        <v>0.4775</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="E49">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F49">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B50">
-        <v>0.132395833333333</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.0841875</v>
+        <v>0.2</v>
       </c>
       <c r="D50">
-        <v>0.269197916666667</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0.644916666666667</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.00963541666667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>1.51145833333333</v>
-      </c>
-      <c r="C52">
-        <v>1.32541666666667</v>
-      </c>
-      <c r="D52">
-        <v>0.548541666666667</v>
-      </c>
-      <c r="E52">
-        <v>0.365</v>
-      </c>
-      <c r="F52">
-        <v>0.182291666666667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>0.2415625</v>
-      </c>
-      <c r="C53">
-        <v>0.429520833333333</v>
-      </c>
-      <c r="D53">
-        <v>1.19636458333333</v>
-      </c>
-      <c r="E53">
-        <v>1.39191666666667</v>
-      </c>
-      <c r="F53">
-        <v>1.57046875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0.2</v>
-      </c>
-      <c r="D57">
-        <v>0.8</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>0.1765625</v>
-      </c>
-      <c r="C58">
-        <v>0.3471875</v>
-      </c>
-      <c r="D58">
-        <v>0.52703125</v>
-      </c>
-      <c r="E58">
-        <v>0.92375</v>
-      </c>
-      <c r="F58">
-        <v>1.29296875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>0.132395833333333</v>
-      </c>
-      <c r="C59">
-        <v>0.2841875</v>
-      </c>
-      <c r="D59">
-        <v>0.469197916666667</v>
-      </c>
-      <c r="E59">
-        <v>0.844916666666667</v>
-      </c>
-      <c r="F59">
-        <v>0.609635416666667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>1.420625</v>
-      </c>
-      <c r="C60">
-        <v>0.87075</v>
-      </c>
-      <c r="D60">
-        <v>0.275708333333333</v>
-      </c>
-      <c r="E60">
-        <v>0.112</v>
-      </c>
-      <c r="F60">
-        <v>-0.056875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>0.1765625</v>
-      </c>
-      <c r="C62">
-        <v>0.5471875</v>
-      </c>
-      <c r="D62">
-        <v>0.92703125</v>
-      </c>
-      <c r="E62">
-        <v>1.12375</v>
-      </c>
-      <c r="F62">
-        <v>1.29296875</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>0.665</v>
-      </c>
-      <c r="C63">
-        <v>1.08233333333333</v>
-      </c>
-      <c r="D63">
-        <v>0.869333333333333</v>
-      </c>
-      <c r="E63">
-        <v>0.668166666666667</v>
-      </c>
-      <c r="F63">
-        <v>0.4775</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>0.8</v>
-      </c>
-      <c r="C64">
-        <v>0.8</v>
-      </c>
-      <c r="D64">
-        <v>0.6</v>
-      </c>
-      <c r="E64">
-        <v>0.4</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0.2</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
         <v>0</v>
       </c>
     </row>
